--- a/專題/4.xlsx
+++ b/專題/4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>報酬指數</t>
+          <t>指數</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -471,12 +471,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>臺灣生技報酬指數</t>
+          <t>臺灣生技指數</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>4,917.43</t>
+          <t>4,439.35</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -486,17 +486,11 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>13.88</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>報酬指數(跨市場)</t>
-        </is>
-      </c>
+          <t>12.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -504,12 +498,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>臺灣中小型公司治理報酬指數</t>
+          <t>臺灣中小型公司治理指數</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>8,835.30</t>
+          <t>6,720.45</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,17 +513,13 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>53.14</t>
+          <t>46.52</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>-0.6</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>報酬指數(跨市場)</t>
-        </is>
-      </c>
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,12 +527,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>臺灣IPO報酬指數</t>
+          <t>臺灣IPO指數</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>5,403.80</t>
+          <t>4,628.61</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -552,17 +542,13 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>79.62</t>
+          <t>68.20</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>-1.45</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>報酬指數(跨市場)</t>
-        </is>
-      </c>
+        <v>1.45</v>
+      </c>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,12 +556,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>智慧中立報酬指數</t>
+          <t>智慧中立指數</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>3,969.28</t>
+          <t>3,429.45</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -585,17 +571,13 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>7.13</t>
+          <t>6.15</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>-0.18</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>報酬指數(跨市場)</t>
-        </is>
-      </c>
+        <v>0.18</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -603,12 +585,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>加權指數掩護性臺指買權價外5%報酬指數</t>
+          <t>臺灣5G指數</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>6,297.18</t>
+          <t>7,278.67</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -618,17 +600,13 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>39.78</t>
+          <t>56.01</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>-0.63</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>報酬指數(跨市場)</t>
-        </is>
-      </c>
+        <v>0.76</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,12 +614,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>臺灣5G報酬指數</t>
+          <t>臺灣企業社會責任中小型指數</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>8,137.54</t>
+          <t>7,875.74</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -651,17 +629,13 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>62.62</t>
+          <t>44.57</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>-0.76</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>報酬指數(跨市場)</t>
-        </is>
-      </c>
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -669,12 +643,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>臺灣企業社會責任中小型報酬指數</t>
+          <t>特選臺灣電動車代表指數</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>9,162.71</t>
+          <t>5,591.57</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -684,17 +658,13 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>45.10</t>
+          <t>34.16</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>報酬指數(跨市場)</t>
-        </is>
-      </c>
+        <v>0.61</v>
+      </c>
+      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -702,12 +672,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>特選臺灣電動車代表報酬指數</t>
+          <t>臺灣5G+通訊指數</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>6,292.74</t>
+          <t>5,447.74</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -717,17 +687,13 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>38.46</t>
+          <t>35.47</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>-0.61</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>報酬指數(跨市場)</t>
-        </is>
-      </c>
+        <v>0.65</v>
+      </c>
+      <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -735,12 +701,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>臺灣5G+通訊報酬指數</t>
+          <t>臺灣全市場指數</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>5,919.05</t>
+          <t>4,922.11</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -750,17 +716,13 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>38.54</t>
+          <t>32.28</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>-0.65</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>報酬指數(跨市場)</t>
-        </is>
-      </c>
+        <v>0.65</v>
+      </c>
+      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -768,12 +730,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>臺灣全市場報酬指數</t>
+          <t>臺灣全市場半導體指數</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>5,289.42</t>
+          <t>4,579.63</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -783,17 +745,13 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>34.45</t>
+          <t>25.79</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>-0.65</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>報酬指數(跨市場)</t>
-        </is>
-      </c>
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -801,12 +759,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>臺灣全市場半導體報酬指數</t>
+          <t>臺灣電動車與自駕科技永續概念指數</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>4,943.06</t>
+          <t>4,040.45</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -816,17 +774,13 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>26.59</t>
+          <t>26.03</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>-0.54</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>報酬指數(跨市場)</t>
-        </is>
-      </c>
+        <v>0.64</v>
+      </c>
+      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -834,12 +788,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>臺灣電動車與自駕科技永續概念報酬指數</t>
+          <t>臺灣智慧移動與電動車指數</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>4,391.99</t>
+          <t>3,782.23</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -849,17 +803,13 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>28.29</t>
+          <t>25.87</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>-0.64</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>報酬指數(跨市場)</t>
-        </is>
-      </c>
+        <v>0.68</v>
+      </c>
+      <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -867,12 +817,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>臺灣智慧移動與電動車報酬指數</t>
+          <t>特選小資高價30指數</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>4,099.96</t>
+          <t>4,360.16</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -882,17 +832,13 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>28.05</t>
+          <t>46.54</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>-0.68</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>報酬指數(跨市場)</t>
-        </is>
-      </c>
+        <v>1.06</v>
+      </c>
+      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -900,12 +846,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>特選小資高價30報酬指數</t>
+          <t>特選臺灣綠能及電動車指數</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>4,669.31</t>
+          <t>4,253.28</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -915,17 +861,13 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>47.00</t>
+          <t>24.65</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>報酬指數(跨市場)</t>
-        </is>
-      </c>
+        <v>0.58</v>
+      </c>
+      <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -933,12 +875,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>特選臺灣綠能及電動車報酬指數</t>
+          <t>特選臺灣智能車供應鏈聯盟指數</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>4,623.92</t>
+          <t>4,077.99</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -948,17 +890,13 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>26.80</t>
+          <t>33.18</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>-0.58</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>報酬指數(跨市場)</t>
-        </is>
-      </c>
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -966,12 +904,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>特選臺灣智能車供應鏈聯盟報酬指數</t>
+          <t>臺灣全市場半導體精選30指數</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>4,380.75</t>
+          <t>3,626.05</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -981,17 +919,13 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>35.64</t>
+          <t>21.44</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>-0.8100000000000001</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>報酬指數(跨市場)</t>
-        </is>
-      </c>
+        <v>0.59</v>
+      </c>
+      <c r="G17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -999,12 +933,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>臺灣全市場半導體精選30報酬指數</t>
+          <t>特選臺灣高股息30指數</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>3,847.76</t>
+          <t>3,720.57</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1014,17 +948,13 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>21.05</t>
+          <t>18.93</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>-0.54</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>報酬指數(跨市場)</t>
-        </is>
-      </c>
+        <v>0.51</v>
+      </c>
+      <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1032,12 +962,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>特選臺灣高股息30報酬指數</t>
+          <t>臺灣友善環境指數</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>4,279.46</t>
+          <t>4,377.18</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1047,17 +977,13 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>18.07</t>
+          <t>27.48</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>-0.42</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>報酬指數(跨市場)</t>
-        </is>
-      </c>
+        <v>0.62</v>
+      </c>
+      <c r="G19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1065,12 +991,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>臺灣友善環境報酬指數</t>
+          <t>台灣永續價值指數</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>4,641.61</t>
+          <t>4,113.10</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1080,17 +1006,13 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>29.13</t>
+          <t>31.45</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>-0.62</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>報酬指數(跨市場)</t>
-        </is>
-      </c>
+        <v>0.76</v>
+      </c>
+      <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1098,12 +1020,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>台灣永續價值報酬指數</t>
+          <t>特選臺灣IC設計指數</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>4,301.78</t>
+          <t>2,663.33</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1113,17 +1035,13 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>32.90</t>
+          <t>24.10</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>-0.76</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>報酬指數(跨市場)</t>
-        </is>
-      </c>
+        <v>0.9</v>
+      </c>
+      <c r="G21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1131,32 +1049,26 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>特選臺灣IC設計報酬指數</t>
+          <t>特選臺灣環境永續高股息指數</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2,891.51</t>
+          <t>3,980.41</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>21.39</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>-0.73</v>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>報酬指數(跨市場)</t>
-        </is>
-      </c>
+          <t>17.13</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1164,32 +1076,28 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>特選臺灣環境永續高股息報酬指數</t>
+          <t>臺灣友善環境50指數</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>4,469.58</t>
+          <t>3,810.54</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>19.23</t>
+          <t>27.85</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>報酬指數(跨市場)</t>
-        </is>
-      </c>
+        <v>0.73</v>
+      </c>
+      <c r="G23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1197,12 +1105,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>臺灣友善環境50報酬指數</t>
+          <t>特選台灣策略高股息30指數</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>4,026.13</t>
+          <t>3,604.41</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1212,17 +1120,13 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>29.42</t>
+          <t>17.88</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>-0.73</v>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>報酬指數(跨市場)</t>
-        </is>
-      </c>
+        <v>0.49</v>
+      </c>
+      <c r="G24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1230,12 +1134,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>特選台灣策略高股息30報酬指數</t>
+          <t>特選臺灣IC設計產業代表指數</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>4,135.11</t>
+          <t>3,180.31</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1245,17 +1149,13 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>20.50</t>
+          <t>31.92</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>報酬指數(跨市場)</t>
-        </is>
-      </c>
+        <v>0.99</v>
+      </c>
+      <c r="G25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1263,12 +1163,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>特選臺灣IC設計產業代表報酬指數</t>
+          <t>特選臺灣綠能指數</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>3,453.75</t>
+          <t>4,691.04</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1278,17 +1178,13 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>27.70</t>
+          <t>12.99</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>-0.8</v>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>報酬指數(跨市場)</t>
-        </is>
-      </c>
+        <v>0.28</v>
+      </c>
+      <c r="G26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1296,12 +1192,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>特選臺灣綠能報酬指數</t>
+          <t>特選臺灣成長高股息指數</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>4,911.00</t>
+          <t>3,752.49</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1311,17 +1207,13 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>13.60</t>
+          <t>28.53</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>-0.28</v>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>報酬指數(跨市場)</t>
-        </is>
-      </c>
+        <v>0.75</v>
+      </c>
+      <c r="G27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1329,12 +1221,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>特選臺灣成長高股息報酬指數</t>
+          <t>特選臺灣智慧50指數</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>4,301.38</t>
+          <t>3,637.92</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1344,17 +1236,13 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>25.48</t>
+          <t>16.60</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>-0.59</v>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>報酬指數(跨市場)</t>
-        </is>
-      </c>
+        <v>0.45</v>
+      </c>
+      <c r="G28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1362,12 +1250,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>特選臺灣智慧50報酬指數</t>
+          <t>特選臺灣標竿PCB指數</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>3,888.22</t>
+          <t>3,733.07</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1377,17 +1265,13 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>17.75</t>
+          <t>72.34</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>-0.45</v>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>報酬指數(跨市場)</t>
-        </is>
-      </c>
+        <v>1.9</v>
+      </c>
+      <c r="G29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1395,12 +1279,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>特選臺灣標竿PCB報酬指數</t>
+          <t>臺灣晶圓製造指數</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>3,897.65</t>
+          <t>4,182.82</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1410,17 +1294,13 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>75.53</t>
+          <t>32.07</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>-1.9</v>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>報酬指數(跨市場)</t>
-        </is>
-      </c>
+        <v>0.76</v>
+      </c>
+      <c r="G30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1428,12 +1308,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>臺灣晶圓製造報酬指數</t>
+          <t>臺灣精選高息指數</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>4,401.49</t>
+          <t>3,665.08</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1443,17 +1323,13 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>33.08</t>
+          <t>15.44</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>-0.75</v>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>報酬指數(跨市場)</t>
-        </is>
-      </c>
+        <v>0.42</v>
+      </c>
+      <c r="G31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1461,12 +1337,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>臺灣精選高息報酬指數</t>
+          <t>臺灣多因子優選高股息30指數</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>4,134.76</t>
+          <t>4,686.57</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1476,17 +1352,13 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>17.42</t>
+          <t>27.49</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>-0.42</v>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>報酬指數(跨市場)</t>
-        </is>
-      </c>
+        <v>0.58</v>
+      </c>
+      <c r="G32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1494,12 +1366,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>臺灣多因子優選高股息30報酬指數</t>
+          <t>特選臺灣優利高填息30指數</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>5,064.84</t>
+          <t>4,324.67</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1509,17 +1381,13 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>29.71</t>
+          <t>27.87</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>-0.58</v>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>報酬指數(跨市場)</t>
-        </is>
-      </c>
+        <v>0.64</v>
+      </c>
+      <c r="G33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1527,12 +1395,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>特選臺灣優利高填息30報酬指數</t>
+          <t>臺灣多因子優選成長30指數</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>4,709.92</t>
+          <t>5,181.49</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1542,50 +1410,13 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>27.95</t>
+          <t>36.65</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>-0.59</v>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>報酬指數(跨市場)</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>臺灣多因子優選成長30報酬指數</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>5,182.69</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>36.66</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>-0.7</v>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>報酬指數(跨市場)</t>
-        </is>
-      </c>
+        <v>0.7</v>
+      </c>
+      <c r="G34" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/專題/4.xlsx
+++ b/專題/4.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>4,439.35</t>
+          <t>4,446.15</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -486,7 +486,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12.53</t>
+          <t>6.80</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
@@ -503,22 +503,20 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>6,720.45</t>
+          <t>6,848.84</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>46.52</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>0.6899999999999999</v>
-      </c>
+          <t>128.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -532,22 +530,20 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4,628.61</t>
+          <t>4,734.34</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>68.20</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>1.45</v>
-      </c>
+          <t>105.73</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -561,7 +557,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>3,429.45</t>
+          <t>3,428.35</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -571,11 +567,11 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>6.15</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.18</v>
+        <v>0.03</v>
       </c>
       <c r="G5" t="inlineStr"/>
     </row>
@@ -590,22 +586,20 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>7,278.67</t>
+          <t>7,401.03</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>56.01</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>0.76</v>
-      </c>
+          <t>122.36</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -619,22 +613,20 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>7,875.74</t>
+          <t>7,958.84</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>44.57</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>0.5600000000000001</v>
-      </c>
+          <t>83.10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -648,22 +640,20 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>5,591.57</t>
+          <t>5,692.85</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>34.16</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>0.61</v>
-      </c>
+          <t>101.28</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -677,22 +667,20 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>5,447.74</t>
+          <t>5,546.47</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>35.47</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>0.65</v>
-      </c>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -706,22 +694,20 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>4,922.11</t>
+          <t>4,998.67</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>32.28</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>0.65</v>
-      </c>
+          <t>76.56</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
@@ -735,22 +721,20 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>4,579.63</t>
+          <t>4,681.90</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>25.79</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>0.5600000000000001</v>
-      </c>
+          <t>102.27</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -764,22 +748,20 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>4,040.45</t>
+          <t>4,110.81</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>26.03</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>0.64</v>
-      </c>
+          <t>70.36</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
@@ -793,22 +775,20 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>3,782.23</t>
+          <t>3,871.20</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>25.87</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>0.68</v>
-      </c>
+          <t>88.97</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
@@ -822,22 +802,20 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>4,360.16</t>
+          <t>4,467.67</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>46.54</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>1.06</v>
-      </c>
+          <t>107.51</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -851,22 +829,20 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>4,253.28</t>
+          <t>4,321.34</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>24.65</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>0.58</v>
-      </c>
+          <t>68.06</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
@@ -880,22 +856,20 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>4,077.99</t>
+          <t>4,155.12</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>33.18</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>0.8100000000000001</v>
-      </c>
+          <t>77.13</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -909,22 +883,20 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>3,626.05</t>
+          <t>3,711.45</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>21.44</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>0.59</v>
-      </c>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
     </row>
     <row r="18">
@@ -938,22 +910,20 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>3,720.57</t>
+          <t>3,766.14</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>18.93</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>0.51</v>
-      </c>
+          <t>45.57</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
@@ -967,22 +937,20 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>4,377.18</t>
+          <t>4,433.36</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>27.48</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>0.62</v>
-      </c>
+          <t>56.18</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
     </row>
     <row r="20">
@@ -996,22 +964,20 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>4,113.10</t>
+          <t>4,165.25</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>31.45</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>0.76</v>
-      </c>
+          <t>52.15</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
@@ -1025,22 +991,20 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2,663.33</t>
+          <t>2,769.70</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>24.10</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>0.9</v>
-      </c>
+          <t>106.37</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
     </row>
     <row r="22">
@@ -1054,7 +1018,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>3,980.41</t>
+          <t>4,016.38</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1064,7 +1028,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>17.13</t>
+          <t>35.97</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
@@ -1081,22 +1045,20 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>3,810.54</t>
+          <t>3,863.17</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>27.85</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>0.73</v>
-      </c>
+          <t>52.63</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
     </row>
     <row r="24">
@@ -1110,22 +1072,20 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>3,604.41</t>
+          <t>3,649.42</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>17.88</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>0.49</v>
-      </c>
+          <t>45.01</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
     </row>
     <row r="25">
@@ -1139,22 +1099,20 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>3,180.31</t>
+          <t>3,281.54</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>31.92</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>0.99</v>
-      </c>
+          <t>101.23</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
     </row>
     <row r="26">
@@ -1168,22 +1126,20 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>4,691.04</t>
+          <t>4,743.12</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>12.99</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>0.28</v>
-      </c>
+          <t>52.08</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
     </row>
     <row r="27">
@@ -1197,22 +1153,20 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>3,752.49</t>
+          <t>3,816.82</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>28.53</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>0.75</v>
-      </c>
+          <t>64.33</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
     </row>
     <row r="28">
@@ -1226,22 +1180,20 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>3,637.92</t>
+          <t>3,700.26</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>16.60</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>0.45</v>
-      </c>
+          <t>62.34</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
     </row>
     <row r="29">
@@ -1255,22 +1207,20 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>3,733.07</t>
+          <t>3,785.29</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>72.34</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>1.9</v>
-      </c>
+          <t>52.22</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
     </row>
     <row r="30">
@@ -1284,22 +1234,20 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>4,182.82</t>
+          <t>4,267.90</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>32.07</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>0.76</v>
-      </c>
+          <t>85.08</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
     </row>
     <row r="31">
@@ -1313,22 +1261,20 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>3,665.08</t>
+          <t>3,703.32</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>15.44</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>0.42</v>
-      </c>
+          <t>38.24</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
     </row>
     <row r="32">
@@ -1342,22 +1288,20 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>4,686.57</t>
+          <t>4,715.50</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>27.49</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>0.58</v>
-      </c>
+          <t>28.93</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
     </row>
     <row r="33">
@@ -1371,22 +1315,20 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>4,324.67</t>
+          <t>4,379.21</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>27.87</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>0.64</v>
-      </c>
+          <t>54.54</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
     </row>
     <row r="34">
@@ -1400,22 +1342,20 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>5,181.49</t>
+          <t>5,258.13</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>36.65</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>0.7</v>
-      </c>
+          <t>76.64</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
     </row>
   </sheetData>

--- a/專題/4.xlsx
+++ b/專題/4.xlsx
@@ -476,20 +476,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>4,446.15</t>
+          <t>4,338.04</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6.80</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
+          <t>30.87</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>0.71</v>
+      </c>
       <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -503,20 +505,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>6,848.84</t>
+          <t>6,648.62</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>128.39</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
+          <t>42.73</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>0.64</v>
+      </c>
       <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -530,20 +534,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4,734.34</t>
+          <t>4,562.55</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>105.73</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+          <t>24.84</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>0.54</v>
+      </c>
       <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -557,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>3,428.35</t>
+          <t>3,476.12</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -567,11 +573,11 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>5.96</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.03</v>
+        <v>0.17</v>
       </c>
       <c r="G5" t="inlineStr"/>
     </row>
@@ -586,20 +592,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>7,401.03</t>
+          <t>7,003.68</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>122.36</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>1.21</v>
+      </c>
       <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -613,20 +621,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>7,958.84</t>
+          <t>7,900.56</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>83.10</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
+          <t>18.56</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>0.23</v>
+      </c>
       <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -640,20 +650,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>5,692.85</t>
+          <t>5,491.00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>101.28</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
+          <t>34.02</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>0.62</v>
+      </c>
       <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -667,20 +679,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>5,546.47</t>
+          <t>5,281.79</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>98.73</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
+          <t>65.42</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>1.22</v>
+      </c>
       <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -694,20 +708,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>4,998.67</t>
+          <t>4,830.24</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>76.56</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
+          <t>60.65</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>1.24</v>
+      </c>
       <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
@@ -721,20 +737,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>4,681.90</t>
+          <t>4,396.53</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>102.27</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
+          <t>58.93</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>1.32</v>
+      </c>
       <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -748,20 +766,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>4,110.81</t>
+          <t>3,909.33</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>70.36</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
+          <t>51.90</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>1.31</v>
+      </c>
       <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
@@ -775,20 +795,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>3,871.20</t>
+          <t>3,617.27</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>88.97</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
+          <t>19.34</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>0.53</v>
+      </c>
       <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
@@ -802,20 +824,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>4,467.67</t>
+          <t>4,227.59</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>107.51</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr"/>
+          <t>54.08</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>1.26</v>
+      </c>
       <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -829,20 +853,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>4,321.34</t>
+          <t>4,190.71</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>68.06</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr"/>
+          <t>32.69</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>0.77</v>
+      </c>
       <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
@@ -856,20 +882,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>4,155.12</t>
+          <t>3,960.31</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>77.13</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr"/>
+          <t>56.46</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>1.41</v>
+      </c>
       <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -883,20 +911,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>3,711.45</t>
+          <t>3,482.49</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>85.40</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr"/>
+          <t>46.55</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>1.32</v>
+      </c>
       <c r="G17" t="inlineStr"/>
     </row>
     <row r="18">
@@ -910,20 +940,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>3,766.14</t>
+          <t>3,717.23</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>45.57</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr"/>
+          <t>42.81</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>1.14</v>
+      </c>
       <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
@@ -937,20 +969,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>4,433.36</t>
+          <t>4,314.85</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>56.18</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr"/>
+          <t>49.81</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>1.14</v>
+      </c>
       <c r="G19" t="inlineStr"/>
     </row>
     <row r="20">
@@ -964,20 +998,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>4,165.25</t>
+          <t>4,044.68</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>52.15</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr"/>
+          <t>59.90</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>1.46</v>
+      </c>
       <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
@@ -991,7 +1027,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2,769.70</t>
+          <t>2,571.35</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1001,7 +1037,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>106.37</t>
+          <t>3.17</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
@@ -1018,7 +1054,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>4,016.38</t>
+          <t>4,035.23</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1028,7 +1064,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>35.97</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
@@ -1045,20 +1081,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>3,863.17</t>
+          <t>3,744.06</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>52.63</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr"/>
+          <t>50.80</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>1.34</v>
+      </c>
       <c r="G23" t="inlineStr"/>
     </row>
     <row r="24">
@@ -1072,20 +1110,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>3,649.42</t>
+          <t>3,652.32</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>45.01</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr"/>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>0.21</v>
+      </c>
       <c r="G24" t="inlineStr"/>
     </row>
     <row r="25">
@@ -1099,20 +1139,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>3,281.54</t>
+          <t>3,079.45</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>101.23</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr"/>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>0.1</v>
+      </c>
       <c r="G25" t="inlineStr"/>
     </row>
     <row r="26">
@@ -1126,20 +1168,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>4,743.12</t>
+          <t>4,692.77</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>52.08</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr"/>
+          <t>21.57</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>0.46</v>
+      </c>
       <c r="G26" t="inlineStr"/>
     </row>
     <row r="27">
@@ -1153,20 +1197,22 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>3,816.82</t>
+          <t>3,794.31</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>64.33</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr"/>
+          <t>22.57</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>0.59</v>
+      </c>
       <c r="G27" t="inlineStr"/>
     </row>
     <row r="28">
@@ -1180,20 +1226,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>3,700.26</t>
+          <t>3,599.01</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>62.34</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr"/>
+          <t>43.73</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>1.2</v>
+      </c>
       <c r="G28" t="inlineStr"/>
     </row>
     <row r="29">
@@ -1207,20 +1255,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>3,785.29</t>
+          <t>3,490.18</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>52.22</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr"/>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0.21</v>
+      </c>
       <c r="G29" t="inlineStr"/>
     </row>
     <row r="30">
@@ -1234,20 +1284,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>4,267.90</t>
+          <t>4,018.10</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>85.08</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr"/>
+          <t>67.48</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>1.65</v>
+      </c>
       <c r="G30" t="inlineStr"/>
     </row>
     <row r="31">
@@ -1261,20 +1313,22 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>3,703.32</t>
+          <t>3,698.45</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>38.24</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr"/>
+          <t>32.39</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0.87</v>
+      </c>
       <c r="G31" t="inlineStr"/>
     </row>
     <row r="32">
@@ -1288,20 +1342,22 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>4,715.50</t>
+          <t>4,722.88</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>28.93</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr"/>
+          <t>17.77</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0.37</v>
+      </c>
       <c r="G32" t="inlineStr"/>
     </row>
     <row r="33">
@@ -1315,20 +1371,22 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>4,379.21</t>
+          <t>4,373.24</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>54.54</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr"/>
+          <t>18.07</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>0.41</v>
+      </c>
       <c r="G33" t="inlineStr"/>
     </row>
     <row r="34">
@@ -1342,20 +1400,22 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>5,258.13</t>
+          <t>5,135.49</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>76.64</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr"/>
+          <t>86.22</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>1.65</v>
+      </c>
       <c r="G34" t="inlineStr"/>
     </row>
   </sheetData>
